--- a/checklistGenerator/xlsx/Sectionala.xlsx
+++ b/checklistGenerator/xlsx/Sectionala.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.: .....</t>
   </si>
@@ -100,18 +100,12 @@
     <t xml:space="preserve">Reparație efectuată</t>
   </si>
   <si>
-    <t xml:space="preserve">Întrerupere alimentare tensiune</t>
+    <t xml:space="preserve">Ancorarea căilor de rulare</t>
   </si>
   <si>
     <t xml:space="preserve">✓ </t>
   </si>
   <si>
-    <t xml:space="preserve">Deconectare ușă (în poziția ușă deschisă)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancorarea căilor de rulare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificarea tuturor șuruburilor, inclusiv a diblurilor</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t xml:space="preserve">Încuierea ușii</t>
   </si>
   <si>
-    <t xml:space="preserve">Ușa pietonala înglobată și amortizorul (incl. ușa piet. alăt.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificarea șuruburilor pe axul cu arcuri</t>
   </si>
   <si>
@@ -184,43 +175,16 @@
     <t xml:space="preserve">Oprirea de urgență/ Sistemul de sig. al cantului inferior</t>
   </si>
   <si>
-    <t xml:space="preserve">Deschiderea de urgență/ Lanțul de deschidere de urgență</t>
-  </si>
-  <si>
     <t xml:space="preserve">Șuruburile de prindere ale motorului și suportului motor</t>
   </si>
   <si>
     <t xml:space="preserve">Legături și cablaje (cu excepția celor ale halei)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sist. de siguranță “Cablu moale” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuplarea ușii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realimentarea la tensiune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cursă de verificare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zona de acțiune a  transmițătorului radio (telecomanda)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispozitivul de comandă a deschiderii de urgență</t>
-  </si>
-  <si>
     <t xml:space="preserve">După verificarea conform “Liniilor directoare pentru ferestre, uși și porți acționate electric“, par. 6.1 pozițiile care sunt semnalate trebuie remediate imediat sau înlocuite</t>
   </si>
   <si>
     <t xml:space="preserve">□</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produsul corespunde d.p.d.v al “Liniilor directoare pentru ferestre, uși și porți acționate electric”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produsul nu corespunde d.p.d.v al “Liniilor directoare pentru ferestre, uși și porți acționate electric”</t>
   </si>
   <si>
     <t xml:space="preserve">Au fost determinate serioase lipsuri care nu permit folosirea și funționarea ușii în continuare</t>
@@ -340,96 +304,88 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,9 +412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>145080</xdr:colOff>
+      <xdr:colOff>144360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -472,7 +428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6487200" y="0"/>
-          <a:ext cx="2854440" cy="1253880"/>
+          <a:ext cx="2853720" cy="1253160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,7 +625,7 @@
   <dimension ref="B1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4:F7"/>
+      <selection pane="topLeft" activeCell="H55" activeCellId="0" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +669,6 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
@@ -765,10 +720,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -778,705 +733,547 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" s="15" customFormat="true" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13"/>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="13"/>
+      <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="D36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="D37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8" t="n">
-        <v>26</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="D38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="8" t="n">
-        <v>27</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="D39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8" t="n">
-        <v>29</v>
-      </c>
-      <c r="C42" s="14" t="s">
+      <c r="C47" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="8" t="n">
-        <v>31</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="8" t="n">
-        <v>32</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="8" t="n">
-        <v>33</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="8" t="n">
-        <v>34</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="33">
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
@@ -1505,21 +1302,11 @@
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" display="www.da-te.ro"/>

--- a/checklistGenerator/xlsx/Sectionala.xlsx
+++ b/checklistGenerator/xlsx/Sectionala.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.: .....</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.:</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUS:</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">.....x..... mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Tel.:</t>
+    <t xml:space="preserve">Tel:</t>
   </si>
   <si>
     <t xml:space="preserve">0722 399 907</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nr. bucăți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cod articol</t>
   </si>
   <si>
     <t xml:space="preserve">Observații</t>
@@ -280,25 +277,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -313,51 +310,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,24 +362,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -401,16 +382,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>159480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,12 +404,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6842160" y="0"/>
-          <a:ext cx="2854800" cy="1251720"/>
+          <a:off x="6357240" y="0"/>
+          <a:ext cx="2851200" cy="1250640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -439,27 +421,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D14:D33"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,7 +559,7 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -479,7 +567,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -487,7 +575,7 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -495,7 +583,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -503,7 +591,7 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -511,7 +599,7 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -519,13 +607,13 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -533,30 +621,29 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="65.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
@@ -572,313 +659,291 @@
       <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="n">
         <v>4</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="n">
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="n">
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="n">
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="n">
         <v>9</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" s="13" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="n">
         <v>10</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMI23" s="1"/>
+      <c r="AMJ23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="n">
         <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="n">
         <v>12</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="8" t="n">
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8" t="n">
         <v>14</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="8" t="n">
         <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="n">
         <v>17</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="8" t="n">
         <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="n">
         <v>20</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="16"/>
@@ -887,7 +952,6 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="17"/>
@@ -896,7 +960,6 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="17"/>
@@ -905,89 +968,61 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="23" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25" t="s">
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1010,15 +1045,15 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="C48:F48"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" display="www.da-te.ro"/>
+    <hyperlink ref="G10" r:id="rId1" display="www.da-te.ro"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.747916666666667" top="0.6" bottom="0.6" header="0.511811023622047" footer="0.511811023622047"/>

--- a/checklistGenerator/xlsx/Sectionala.xlsx
+++ b/checklistGenerator/xlsx/Sectionala.xlsx
@@ -182,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,6 +227,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -358,11 +365,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,9 +396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
+      <xdr:colOff>781560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,7 +412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6357240" y="0"/>
-          <a:ext cx="2851200" cy="1250640"/>
+          <a:ext cx="2850840" cy="1250280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -534,8 +541,8 @@
   </sheetPr>
   <dimension ref="B1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
